--- a/input/example_excel.xlsx
+++ b/input/example_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EDUARDO\GitHub\correct_gpr_line\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D6549F-1585-4FDE-BE7C-4B53245C74CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F702339-A107-48D3-8DC8-D98AFE9DA827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,10 +634,10 @@
     <xf numFmtId="1" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,7 +988,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -998,8 +998,7 @@
     <col min="3" max="4" width="18.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1033,7 +1032,7 @@
         <v>722</v>
       </c>
       <c r="E2" s="3">
-        <v>7.22</v>
+        <v>7.2399999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1050,7 +1049,7 @@
         <v>710</v>
       </c>
       <c r="E3" s="3">
-        <v>7.1</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1067,7 +1066,7 @@
         <v>698</v>
       </c>
       <c r="E4" s="3">
-        <v>6.98</v>
+        <v>7.0200000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1084,7 +1083,7 @@
         <v>683</v>
       </c>
       <c r="E5" s="3">
-        <v>6.83</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1101,7 +1100,7 @@
         <v>671</v>
       </c>
       <c r="E6" s="3">
-        <v>6.71</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1118,7 +1117,7 @@
         <v>661</v>
       </c>
       <c r="E7" s="3">
-        <v>6.61</v>
+        <v>6.6800000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1135,7 +1134,7 @@
         <v>658</v>
       </c>
       <c r="E8" s="3">
-        <v>6.58</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1152,7 +1151,7 @@
         <v>652</v>
       </c>
       <c r="E9" s="3">
-        <v>6.52</v>
+        <v>6.6099999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1169,7 +1168,7 @@
         <v>646</v>
       </c>
       <c r="E10" s="3">
-        <v>6.46</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,7 +1185,7 @@
         <v>652</v>
       </c>
       <c r="E11" s="3">
-        <v>6.52</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1203,7 +1202,7 @@
         <v>641</v>
       </c>
       <c r="E12" s="3">
-        <v>6.41</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1220,7 +1219,7 @@
         <v>638</v>
       </c>
       <c r="E13" s="3">
-        <v>6.38</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1237,7 +1236,7 @@
         <v>632</v>
       </c>
       <c r="E14" s="3">
-        <v>6.32</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1254,7 +1253,7 @@
         <v>628</v>
       </c>
       <c r="E15" s="3">
-        <v>6.28</v>
+        <v>6.4300000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1271,7 +1270,7 @@
         <v>627</v>
       </c>
       <c r="E16" s="3">
-        <v>6.27</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1288,7 +1287,7 @@
         <v>623</v>
       </c>
       <c r="E17" s="3">
-        <v>6.23</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1305,7 +1304,7 @@
         <v>608</v>
       </c>
       <c r="E18" s="3">
-        <v>6.08</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1322,7 +1321,7 @@
         <v>805</v>
       </c>
       <c r="E19" s="3">
-        <v>8.0500000000000007</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1339,7 +1338,7 @@
         <v>1842</v>
       </c>
       <c r="E20" s="3">
-        <v>18.420000000000002</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1356,7 +1355,7 @@
         <v>1839</v>
       </c>
       <c r="E21" s="3">
-        <v>18.39</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1373,7 +1372,7 @@
         <v>1840</v>
       </c>
       <c r="E22" s="3">
-        <v>18.399999999999999</v>
+        <v>18.619999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1390,7 +1389,7 @@
         <v>1831</v>
       </c>
       <c r="E23" s="3">
-        <v>18.309999999999999</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1407,7 +1406,7 @@
         <v>1828</v>
       </c>
       <c r="E24" s="3">
-        <v>18.28</v>
+        <v>18.52</v>
       </c>
     </row>
   </sheetData>
